--- a/biology/Médecine/Syndrome_lymphoprolifératif_avec_auto-immunité/Syndrome_lymphoprolifératif_avec_auto-immunité.xlsx
+++ b/biology/Médecine/Syndrome_lymphoprolifératif_avec_auto-immunité/Syndrome_lymphoprolifératif_avec_auto-immunité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_lymphoprolif%C3%A9ratif_avec_auto-immunit%C3%A9</t>
+          <t>Syndrome_lymphoprolifératif_avec_auto-immunité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Décrit en 1967[1], le syndrome lymphoprolifératif avec auto-immunité est une rare anomalie du fonctionnement de la production des lymphocytes caractérisée par:
+Décrit en 1967, le syndrome lymphoprolifératif avec auto-immunité est une rare anomalie du fonctionnement de la production des lymphocytes caractérisée par:
 Une apoptose lymphocytaire anormale
 Une lymphoprolifération non maligne avec adénopathie et hépato-splénomégalie qui s'atténue dans le temps
 Des phénomènes auto-immunitaires atteignant surtout les cellules sanguines, les anticorps étant dirigés contre les hématies, les neutrophiles et les plaquettes.
@@ -506,7 +518,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_lymphoprolif%C3%A9ratif_avec_auto-immunit%C3%A9</t>
+          <t>Syndrome_lymphoprolifératif_avec_auto-immunité</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -524,7 +536,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diagnostic est basé sur des tests de mesure de l'apoptose. Les lymphocytes du patient sont mis en culture, activés puis traités par des molécules induisant l'apoptose (ligand de Fas ou anticorps agoniste anti-Fas). Ces lymphocytes présentent une résistance plus ou moins importante à l'apoptose.
 Par la suite, le récepteur Fas est séquencé afin de rechercher d'éventuelles mutations.
@@ -538,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syndrome_lymphoprolif%C3%A9ratif_avec_auto-immunit%C3%A9</t>
+          <t>Syndrome_lymphoprolifératif_avec_auto-immunité</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,9 +570,11 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les patients avec une anémie autoimmune hémolytique sévère ou une thrombopénie autoimmune peuvent être traités efficacement avec une corticothérapie ou des immunoglobulines intraveineuses. Les patients avec des cytopénies autoimmunes réfractaires à la splénectomie ou à la corticothérapie peuvent être traités avec des immunoglobulines intraveineuses, de la ciclosporine A, de la vincristine, du methotrexate, de l'azathioprine, du mycophenylate mofitil ou du rituximab[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les patients avec une anémie autoimmune hémolytique sévère ou une thrombopénie autoimmune peuvent être traités efficacement avec une corticothérapie ou des immunoglobulines intraveineuses. Les patients avec des cytopénies autoimmunes réfractaires à la splénectomie ou à la corticothérapie peuvent être traités avec des immunoglobulines intraveineuses, de la ciclosporine A, de la vincristine, du methotrexate, de l'azathioprine, du mycophenylate mofitil ou du rituximab.
 </t>
         </is>
       </c>
